--- a/sources/Bashkir_data.xlsx
+++ b/sources/Bashkir_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="560">
   <si>
     <t>language_no</t>
   </si>
@@ -1641,9 +1641,6 @@
     <t>Спорная конструкция</t>
   </si>
   <si>
-    <t>menän</t>
-  </si>
-  <si>
     <t>ABL</t>
   </si>
   <si>
@@ -1656,9 +1653,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>turahənda</t>
-  </si>
-  <si>
     <t>LOC</t>
   </si>
   <si>
@@ -1668,37 +1662,46 @@
     <t>tip</t>
   </si>
   <si>
-    <t>aša</t>
-  </si>
-  <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
-    <t>NOMmenän</t>
-  </si>
-  <si>
-    <t>NOMABL</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>NOMturahənda</t>
-  </si>
-  <si>
-    <t>NOMLOC</t>
-  </si>
-  <si>
-    <t>NOMCAR</t>
-  </si>
-  <si>
-    <t>NOMtip</t>
-  </si>
-  <si>
-    <t>NOMaša</t>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>menan</t>
+  </si>
+  <si>
+    <t>turahenda</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM_asa</t>
+  </si>
+  <si>
+    <t>NOM_CAR</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_LOC</t>
+  </si>
+  <si>
+    <t>NOM_menan</t>
+  </si>
+  <si>
+    <t>NOM_tip</t>
+  </si>
+  <si>
+    <t>NOM_turahenda</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1789,7 +1792,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2079,32 +2081,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="G109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="46" style="9" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="4.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="46" style="8" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2198,18 +2200,18 @@
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="L2" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2238,13 +2240,13 @@
         <v>537</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>550</v>
+      <c r="L3" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2281,13 +2283,13 @@
         <v>537</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>551</v>
+      <c r="L4" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2321,14 +2323,16 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2362,7 +2366,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>537</v>
@@ -2370,8 +2374,8 @@
       <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>552</v>
+      <c r="L6" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2379,7 +2383,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2408,13 +2412,13 @@
         <v>537</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>553</v>
+      <c r="L7" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2422,7 +2426,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2451,13 +2455,13 @@
         <v>537</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>553</v>
+      <c r="L8" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2491,14 +2495,16 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2532,14 +2538,16 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2576,13 +2584,13 @@
         <v>537</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>553</v>
+      <c r="L11" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2616,14 +2624,16 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2660,13 +2670,13 @@
         <v>537</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>553</v>
+      <c r="L13" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2700,14 +2710,16 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2715,7 +2727,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -2744,13 +2756,13 @@
         <v>537</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>551</v>
+      <c r="L15" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2758,7 +2770,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -2784,14 +2796,16 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2799,7 +2813,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -2825,14 +2839,16 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2869,13 +2885,13 @@
         <v>537</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>553</v>
+      <c r="L18" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2909,14 +2925,16 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2950,10 +2968,14 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2961,7 +2983,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -2987,14 +3009,16 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3028,10 +3052,14 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3039,7 +3067,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3068,13 +3096,13 @@
         <v>537</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>553</v>
+      <c r="L23" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3111,13 +3139,13 @@
         <v>537</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>550</v>
+      <c r="L24" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3125,7 +3153,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3154,13 +3182,13 @@
         <v>537</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>550</v>
+      <c r="L25" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3197,13 +3225,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>554</v>
+      <c r="L26" s="9" t="s">
+        <v>559</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3237,14 +3265,16 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3278,14 +3308,16 @@
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3319,14 +3351,16 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3360,14 +3394,16 @@
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K30" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3375,7 +3411,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3404,13 +3440,13 @@
         <v>537</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>553</v>
+      <c r="L31" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3444,14 +3480,16 @@
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3488,13 +3526,13 @@
         <v>537</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>550</v>
+      <c r="L33" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3528,14 +3566,16 @@
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3572,13 +3612,13 @@
         <v>537</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>555</v>
+      <c r="L35" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="5"/>
@@ -3586,7 +3626,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -3615,13 +3655,13 @@
         <v>537</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>551</v>
+      <c r="L36" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3655,14 +3695,16 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3699,13 +3741,13 @@
         <v>537</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>551</v>
+      <c r="L38" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3747,18 +3789,18 @@
       <c r="K39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="L39" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -3784,14 +3826,16 @@
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3825,14 +3869,16 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3866,14 +3912,16 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3910,13 +3958,13 @@
         <v>537</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="10" t="s">
-        <v>556</v>
+      <c r="L43" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3950,10 +3998,14 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3987,14 +4039,16 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4031,13 +4085,13 @@
         <v>537</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>553</v>
+      <c r="L46" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4071,14 +4125,16 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4112,14 +4168,16 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K48" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4156,13 +4214,13 @@
         <v>537</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>554</v>
+      <c r="L49" s="9" t="s">
+        <v>559</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="5"/>
@@ -4170,7 +4228,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4196,14 +4254,16 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4237,14 +4297,16 @@
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4281,13 +4343,13 @@
         <v>537</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>557</v>
+      <c r="L52" s="9" t="s">
+        <v>558</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -4321,14 +4383,16 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4365,13 +4429,13 @@
         <v>537</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="10" t="s">
-        <v>553</v>
+      <c r="L54" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4408,13 +4472,13 @@
         <v>537</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>550</v>
+      <c r="L55" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -4448,14 +4512,16 @@
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -4489,10 +4555,14 @@
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -4526,10 +4596,14 @@
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -4563,10 +4637,14 @@
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -4600,7 +4678,7 @@
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>537</v>
@@ -4608,8 +4686,8 @@
       <c r="K60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="10" t="s">
-        <v>552</v>
+      <c r="L60" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -4643,14 +4721,16 @@
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -4692,18 +4772,18 @@
       <c r="K62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="L62" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -4732,13 +4812,13 @@
         <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>553</v>
+      <c r="L63" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -4772,14 +4852,16 @@
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -4816,13 +4898,13 @@
         <v>537</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="10" t="s">
-        <v>551</v>
+      <c r="L65" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4856,10 +4938,14 @@
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -4893,14 +4979,16 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -4934,10 +5022,14 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -4974,13 +5066,13 @@
         <v>537</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>558</v>
+      <c r="L69" s="9" t="s">
+        <v>553</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5014,14 +5106,16 @@
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5055,14 +5149,16 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5096,14 +5192,16 @@
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5137,14 +5235,16 @@
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L73" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5181,13 +5281,13 @@
         <v>537</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>553</v>
+      <c r="L74" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5224,13 +5324,13 @@
         <v>537</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>551</v>
+      <c r="L75" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5264,14 +5364,16 @@
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -5305,14 +5407,16 @@
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -5349,13 +5453,13 @@
         <v>537</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L78" s="10" t="s">
-        <v>553</v>
+      <c r="L78" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -5389,14 +5493,16 @@
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -5433,13 +5539,13 @@
         <v>537</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>553</v>
+      <c r="L80" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -5476,13 +5582,13 @@
         <v>537</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>550</v>
+      <c r="L81" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -5519,13 +5625,13 @@
         <v>537</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>553</v>
+      <c r="L82" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -5562,13 +5668,13 @@
         <v>537</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>551</v>
+      <c r="L83" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -5605,13 +5711,13 @@
         <v>537</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>553</v>
+      <c r="L84" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="5"/>
@@ -5619,7 +5725,7 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="6"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -5648,13 +5754,13 @@
         <v>537</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>550</v>
+      <c r="L85" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5696,18 +5802,18 @@
       <c r="K86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L86" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>538</v>
-      </c>
+      <c r="L86" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -5733,14 +5839,16 @@
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L87" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5774,14 +5882,16 @@
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K88" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L88" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5815,14 +5925,16 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>540</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="5"/>
@@ -5830,7 +5942,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="6"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -5856,10 +5968,14 @@
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5896,13 +6012,13 @@
         <v>537</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>551</v>
+      <c r="L91" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5936,14 +6052,16 @@
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -5977,10 +6095,14 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -6014,14 +6136,16 @@
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6058,13 +6182,13 @@
         <v>537</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L95" s="10" t="s">
-        <v>550</v>
+      <c r="L95" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6101,13 +6225,13 @@
         <v>537</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L96" s="10" t="s">
-        <v>553</v>
+      <c r="L96" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6141,14 +6265,16 @@
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L97" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6182,10 +6308,14 @@
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -6222,13 +6352,13 @@
         <v>537</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L99" s="10" t="s">
-        <v>550</v>
+      <c r="L99" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6265,13 +6395,13 @@
         <v>537</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L100" s="10" t="s">
-        <v>550</v>
+      <c r="L100" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -6305,14 +6435,16 @@
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K101" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -6349,13 +6481,13 @@
         <v>537</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L102" s="10" t="s">
-        <v>553</v>
+      <c r="L102" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -6389,14 +6521,16 @@
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L103" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -6430,14 +6564,16 @@
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L104" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -6474,13 +6610,13 @@
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L105" s="10" t="s">
-        <v>553</v>
+      <c r="L105" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -6514,14 +6650,16 @@
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L106" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -6558,13 +6696,13 @@
         <v>537</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="10" t="s">
-        <v>553</v>
+      <c r="L107" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6598,14 +6736,16 @@
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6639,14 +6779,16 @@
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -6680,14 +6822,16 @@
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6695,7 +6839,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -6721,14 +6865,16 @@
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L111" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -6736,7 +6882,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -6765,13 +6911,13 @@
         <v>537</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L112" s="10" t="s">
-        <v>551</v>
+      <c r="L112" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -6779,7 +6925,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -6808,13 +6954,13 @@
         <v>537</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L113" s="10" t="s">
-        <v>550</v>
+      <c r="L113" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -6822,7 +6968,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -6851,13 +6997,13 @@
         <v>537</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L114" s="10" t="s">
-        <v>553</v>
+      <c r="L114" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -6865,7 +7011,7 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -6891,10 +7037,14 @@
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -6902,7 +7052,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -6928,14 +7078,16 @@
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K116" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -6943,7 +7095,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -6972,13 +7124,13 @@
         <v>537</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L117" s="10" t="s">
-        <v>551</v>
+      <c r="L117" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -6986,7 +7138,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7015,13 +7167,13 @@
         <v>537</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L118" s="10" t="s">
-        <v>553</v>
+      <c r="L118" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7029,7 +7181,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -7058,13 +7210,13 @@
         <v>537</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L119" s="10" t="s">
-        <v>553</v>
+      <c r="L119" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7098,10 +7250,14 @@
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -7138,13 +7294,13 @@
         <v>537</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L121" s="10" t="s">
-        <v>550</v>
+      <c r="L121" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -7178,10 +7334,14 @@
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -7218,13 +7378,13 @@
         <v>537</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L123" s="10" t="s">
-        <v>553</v>
+      <c r="L123" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -7261,13 +7421,13 @@
         <v>537</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L124" s="10" t="s">
-        <v>553</v>
+      <c r="L124" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -7301,14 +7461,16 @@
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -7345,13 +7507,13 @@
         <v>537</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L126" s="10" t="s">
-        <v>553</v>
+      <c r="L126" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -7385,10 +7547,14 @@
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -7425,13 +7591,13 @@
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L128" s="10" t="s">
-        <v>553</v>
+      <c r="L128" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -7465,10 +7631,14 @@
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -7502,10 +7672,14 @@
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -7542,13 +7716,13 @@
         <v>537</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L131" s="10" t="s">
-        <v>551</v>
+      <c r="L131" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
